--- a/other/test2.xlsx
+++ b/other/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\fourthsemester1\book-management\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FC7FFF-282F-4BE2-B698-453371041AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81BD7DF-9F4B-4E02-BF45-E7A00A10EF01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>gagaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,47 +43,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>书名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采购数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清华出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京大学出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民出版社</t>
+    <t>采购类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,18 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -429,126 +408,80 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43474</v>
-      </c>
-      <c r="F2" s="1">
-        <v>44114</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43609</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44114</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>42835</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44114</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43393</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44114</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>500</v>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
